--- a/m1/Ejercicios/20191105/datos practica6.xlsx
+++ b/m1/Ejercicios/20191105/datos practica6.xlsx
@@ -9,16 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
-    <sheet name="3" sheetId="3" r:id="rId3"/>
-    <sheet name="4" sheetId="4" r:id="rId4"/>
-    <sheet name="5" sheetId="5" r:id="rId5"/>
-    <sheet name="Gráfico1" sheetId="7" r:id="rId6"/>
-    <sheet name="Gráfico2" sheetId="8" r:id="rId7"/>
+    <sheet name="3_Gráfico2" sheetId="12" r:id="rId3"/>
+    <sheet name="3" sheetId="3" r:id="rId4"/>
+    <sheet name="4" sheetId="4" r:id="rId5"/>
+    <sheet name="5" sheetId="5" r:id="rId6"/>
+    <sheet name="Gráfico1" sheetId="7" r:id="rId7"/>
+    <sheet name="Gráfico2" sheetId="8" r:id="rId8"/>
+    <sheet name="Gráfico3" sheetId="9" r:id="rId9"/>
+    <sheet name="Gráfico4" sheetId="10" r:id="rId10"/>
+    <sheet name="3_Gráfico1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -635,6 +639,460 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DF9E-4BB7-B6A3-978BC05A9032}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DF9E-4BB7-B6A3-978BC05A9032}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DF9E-4BB7-B6A3-978BC05A9032}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DF9E-4BB7-B6A3-978BC05A9032}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.910149695359056E-2"/>
+                  <c:y val="-6.0585991393597889E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DF9E-4BB7-B6A3-978BC05A9032}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.7770380453904428E-2"/>
+                  <c:y val="2.089172117020617E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DF9E-4BB7-B6A3-978BC05A9032}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.3194674872217109E-2"/>
+                  <c:y val="0.10863695008507192"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-DF9E-4BB7-B6A3-978BC05A9032}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8219631977109391E-3"/>
+                  <c:y val="-4.1783442340412334E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-DF9E-4BB7-B6A3-978BC05A9032}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('3'!$A$5,'3'!$A$10,'3'!$A$15,'3'!$A$20)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TRIMESTRE 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TRIMESTRE 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TRIMESTRE 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TRIMESTRE 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('3'!$F$5,'3'!$F$10,'3'!$F$15,'3'!$F$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-DF9E-4BB7-B6A3-978BC05A9032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1042,7 +1500,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1120,6 +1578,198 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.1846920302601703E-4"/>
+                  <c:y val="5.2385579579938219E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-4268-4FAA-BDF9-1F8BCB938EA4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.006921767982131E-2"/>
+                  <c:y val="3.1493858409732053E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4268-4FAA-BDF9-1F8BCB938EA4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5747087156005192E-3"/>
+                  <c:y val="1.568441854309683E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4268-4FAA-BDF9-1F8BCB938EA4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.611647121652628E-3"/>
+                  <c:y val="9.4169021920350558E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-4268-4FAA-BDF9-1F8BCB938EA4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1433610319363392E-2"/>
+                  <c:y val="-5.2073026271092617E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4268-4FAA-BDF9-1F8BCB938EA4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2103160760584364E-3"/>
+                  <c:y val="-3.2366540148377358E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4268-4FAA-BDF9-1F8BCB938EA4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.7048250402791266E-3"/>
+                  <c:y val="1.3595246426076289E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4268-4FAA-BDF9-1F8BCB938EA4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.4592343651615335E-4"/>
+                  <c:y val="1.0602137239525886E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4268-4FAA-BDF9-1F8BCB938EA4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1128,7 +1778,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="t" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" numCol="1" anchor="t" anchorCtr="0">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -1169,21 +1819,7 @@
                   </a:ln>
                 </c15:spPr>
                 <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1290,6 +1926,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1430,6 +2080,1214 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Cristina</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elvira</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Miguel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vicente</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Yolanda</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Carmen</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Emilio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacinto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jaime</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Luis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1683</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5963-40B6-B4CC-E3C3D1FA7EB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1954282655"/>
+        <c:axId val="1954290143"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comisiones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Cristina</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elvira</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Miguel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vicente</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Yolanda</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Carmen</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Emilio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacinto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jaime</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Luis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5963-40B6-B4CC-E3C3D1FA7EB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1954282655"/>
+        <c:axId val="1954290143"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1954282655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1954290143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1954290143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1954282655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="50"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Cristina</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elvira</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Miguel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vicente</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Yolanda</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Carmen</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Emilio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacinto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jaime</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Luis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1683</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E421-40E2-9A1C-3FEDF266898B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comisiones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Cristina</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elvira</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Miguel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vicente</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Yolanda</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Carmen</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Emilio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacinto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jaime</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Luis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cone"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E421-40E2-9A1C-3FEDF266898B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:shape val="box"/>
+        <c:axId val="1957457135"/>
+        <c:axId val="1957458799"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1957457135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1957458799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1957458799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1957457135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="500"/>
+        <c:minorUnit val="100"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="50800" dir="1800000" algn="ctr" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="40000"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FA4D-497A-8F1C-40021A60799C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FA4D-497A-8F1C-40021A60799C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FA4D-497A-8F1C-40021A60799C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FA4D-497A-8F1C-40021A60799C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>('3'!$A$5,'3'!$A$10,'3'!$A$15,'3'!$A$20)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TRIMESTRE 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TRIMESTRE 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TRIMESTRE 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TRIMESTRE 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('3'!$F$5,'3'!$F$10,'3'!$F$15,'3'!$F$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-FA4D-497A-8F1C-40021A60799C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1510,8 +3368,168 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1568,7 +3586,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1619,6 +3637,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1629,12 +3654,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1672,7 +3704,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1715,22 +3747,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1835,8 +3868,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1968,19 +4001,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2516,7 +4550,2046 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -2527,11 +6600,44 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2566,6 +6672,114 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308171" cy="6078963"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308171" cy="6078963"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308171" cy="6078963"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308171" cy="6078963"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -3343,7 +7557,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A11 C1:C11"/>
+      <selection activeCell="D1" activeCellId="2" sqref="A1:A11 C1:C11 D1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3516,7 +7730,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="F20" activeCellId="7" sqref="A5 F5 A10 F10 A15 F15 A20 F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
